--- a/output2/【河洛話注音】上有力量的每日祈禱文.xlsx
+++ b/output2/【河洛話注音】上有力量的每日祈禱文.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A57A4-A2B0-4AC8-9CE5-ACD17F79FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33CEC4A-A578-453B-8615-A43815D95A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{E23BB67B-2398-4558-8CA4-C220D0D18289}"/>
-    <workbookView xWindow="-21675" yWindow="2580" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="11" xr2:uid="{C27737B3-5DFE-41F8-BAC0-DD5E8D289269}"/>
+    <workbookView xWindow="-21675" yWindow="2580" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="7" xr2:uid="{C27737B3-5DFE-41F8-BAC0-DD5E8D289269}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -3531,7 +3531,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -5569,7 +5569,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -6312,7 +6312,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -7055,7 +7055,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -7798,7 +7798,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -8054,8 +8054,8 @@
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
-    <sheetView topLeftCell="A35" workbookViewId="1">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="1">
+      <selection activeCell="A95" sqref="A95:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -9753,20 +9753,20 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>609</v>
       </c>
       <c r="B95" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C95:E95)</f>
-        <v>Øu2</v>
+        <v>hoo7</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <v>2</v>

--- a/output2/【河洛話注音】上有力量的每日祈禱文.xlsx
+++ b/output2/【河洛話注音】上有力量的每日祈禱文.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33CEC4A-A578-453B-8615-A43815D95A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415AD25-3EB6-4E07-8595-DA9257D7CBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{E23BB67B-2398-4558-8CA4-C220D0D18289}"/>
-    <workbookView xWindow="-21675" yWindow="2580" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="7" xr2:uid="{C27737B3-5DFE-41F8-BAC0-DD5E8D289269}"/>
+    <workbookView xWindow="5820" yWindow="2475" windowWidth="17280" windowHeight="12870" xr2:uid="{E23BB67B-2398-4558-8CA4-C220D0D18289}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="7" xr2:uid="{C27737B3-5DFE-41F8-BAC0-DD5E8D289269}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="684">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -516,9 +516,6 @@
     <t>hian5</t>
   </si>
   <si>
-    <t>ian</t>
-  </si>
-  <si>
     <t>ping5</t>
   </si>
   <si>
@@ -788,9 +785,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄜˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1185,9 +1176,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hîan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1422,9 +1410,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hían&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1602,9 +1587,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1795,9 +1777,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2224,6 +2203,35 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;與&lt;/rb&gt;&lt;rt&gt;hoo7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bíng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2682,102 +2690,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -2787,12 +2795,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2802,12 +2810,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -2817,47 +2825,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2867,37 +2875,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -2907,32 +2915,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -2942,32 +2950,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2977,57 +2985,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>573</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -3037,22 +3045,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3062,57 +3070,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -3122,32 +3130,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -3157,27 +3165,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -3187,72 +3195,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -3262,17 +3270,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -3282,27 +3290,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3312,37 +3320,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -3352,42 +3360,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -3397,12 +3405,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3497,22 +3505,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3572,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3603,102 +3611,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -3708,12 +3716,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3723,12 +3731,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3738,47 +3746,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -3788,37 +3796,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3828,32 +3836,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -3863,32 +3871,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3898,57 +3906,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>508</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -3958,22 +3966,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3983,57 +3991,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4043,32 +4051,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -4078,27 +4086,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -4108,72 +4116,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -4183,17 +4191,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -4203,27 +4211,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -4233,37 +4241,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -4273,42 +4281,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -4318,12 +4326,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4346,102 +4354,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4451,12 +4459,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4466,12 +4474,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4481,47 +4489,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -4531,37 +4539,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -4571,32 +4579,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -4606,32 +4614,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4641,57 +4649,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>448</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -4701,22 +4709,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4726,57 +4734,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4786,32 +4794,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -4821,27 +4829,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -4851,72 +4859,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -4926,17 +4934,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -4946,27 +4954,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -4976,37 +4984,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -5016,42 +5024,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -5061,12 +5069,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5089,102 +5097,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -5194,12 +5202,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5209,12 +5217,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5224,47 +5232,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -5274,37 +5282,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -5314,32 +5322,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -5349,32 +5357,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -5384,57 +5392,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>369</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -5444,22 +5452,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -5469,57 +5477,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -5529,32 +5537,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -5564,27 +5572,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -5594,72 +5602,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -5669,17 +5677,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -5689,27 +5697,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -5719,37 +5727,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -5759,42 +5767,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -5804,12 +5812,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5832,102 +5840,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -5937,12 +5945,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5952,12 +5960,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5967,47 +5975,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -6017,37 +6025,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6057,32 +6065,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -6092,32 +6100,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -6127,57 +6135,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>369</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -6187,22 +6195,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -6212,57 +6220,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -6272,32 +6280,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -6307,27 +6315,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -6337,72 +6345,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -6412,17 +6420,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -6432,27 +6440,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -6462,37 +6470,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -6502,42 +6510,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -6547,12 +6555,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6575,102 +6583,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -6680,12 +6688,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -6695,12 +6703,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6710,47 +6718,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -6760,37 +6768,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6800,32 +6808,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -6835,32 +6843,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -6870,57 +6878,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -6930,22 +6938,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -6955,57 +6963,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -7015,32 +7023,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -7050,27 +7058,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -7080,72 +7088,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -7155,17 +7163,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -7175,27 +7183,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -7205,37 +7213,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -7245,42 +7253,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -7290,12 +7298,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7318,102 +7326,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -7423,12 +7431,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -7438,12 +7446,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -7453,47 +7461,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -7503,37 +7511,37 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7543,32 +7551,32 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -7578,32 +7586,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -7613,57 +7621,57 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -7673,22 +7681,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -7698,57 +7706,57 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -7758,32 +7766,32 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -7793,27 +7801,27 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -7823,72 +7831,72 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -7898,17 +7906,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -7918,27 +7926,27 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -7948,37 +7956,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -7988,42 +7996,42 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -8033,12 +8041,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8054,25 +8062,25 @@
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="1">
-      <selection activeCell="A95" sqref="A95:E95"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="1">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B1" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C1:E1)</f>
         <v>siong7</v>
       </c>
       <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" t="s">
-        <v>190</v>
       </c>
       <c r="E1">
         <v>7</v>
@@ -8093,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -8155,7 +8163,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -8173,10 +8181,10 @@
         <v>mui5</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8287,7 +8295,7 @@
         <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -8348,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -8411,10 +8419,10 @@
         <v>can2</v>
       </c>
       <c r="C20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" t="s">
         <v>184</v>
-      </c>
-      <c r="D20" t="s">
-        <v>185</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -8502,7 +8510,7 @@
         <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -8540,10 +8548,10 @@
         <v>ka2</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -8624,7 +8632,7 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -8770,7 +8778,7 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -8826,17 +8834,17 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B44" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C44:E44)</f>
         <v>siong7</v>
       </c>
       <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s">
         <v>189</v>
-      </c>
-      <c r="D44" t="s">
-        <v>190</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -8897,7 +8905,7 @@
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -9141,14 +9149,15 @@
       <c r="A61" t="s">
         <v>50</v>
       </c>
-      <c r="B61" t="s">
-        <v>151</v>
+      <c r="B61" s="5" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C61:E61)</f>
+        <v>ping5</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>675</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>676</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -9166,10 +9175,10 @@
         <v>ka2</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -9190,7 +9199,7 @@
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -9224,7 +9233,7 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -9251,7 +9260,7 @@
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -9269,7 +9278,7 @@
         <v>kai3</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
         <v>127</v>
@@ -9286,13 +9295,13 @@
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -9323,7 +9332,7 @@
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -9399,17 +9408,17 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B76" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C76:E76)</f>
         <v>kap4</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -9427,10 +9436,10 @@
         <v>can2</v>
       </c>
       <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
         <v>184</v>
-      </c>
-      <c r="D77" t="s">
-        <v>185</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -9501,7 +9510,7 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
@@ -9521,7 +9530,7 @@
         <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -9548,7 +9557,7 @@
         <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -9566,10 +9575,10 @@
         <v>kiann2</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -9583,7 +9592,7 @@
         <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
         <v>96</v>
@@ -9605,7 +9614,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C87:E87)</f>
@@ -9615,7 +9624,7 @@
         <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -9629,7 +9638,7 @@
         <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
         <v>119</v>
@@ -9649,7 +9658,7 @@
         <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>124</v>
@@ -9669,7 +9678,7 @@
         <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
         <v>99</v>
@@ -9689,7 +9698,7 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -9716,7 +9725,7 @@
         <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -9739,7 +9748,7 @@
         <v>su3</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D94" t="s">
         <v>139</v>
@@ -9753,17 +9762,17 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B95" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C95:E95)</f>
         <v>hoo7</v>
       </c>
       <c r="C95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" t="s">
         <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>194</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -9784,7 +9793,7 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -9798,7 +9807,7 @@
         <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -9818,7 +9827,7 @@
         <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
         <v>119</v>
@@ -9855,7 +9864,7 @@
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -9869,7 +9878,7 @@
         <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
         <v>124</v>
@@ -9913,10 +9922,10 @@
         <v>soo2</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -9937,7 +9946,7 @@
         <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E105">
         <v>7</v>
@@ -9951,7 +9960,7 @@
         <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
@@ -9971,13 +9980,13 @@
         <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
         <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -9995,10 +10004,10 @@
         <v>kap4</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D108" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -10012,7 +10021,7 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
         <v>119</v>
@@ -10032,13 +10041,13 @@
         <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
         <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -10059,7 +10068,7 @@
         <v>84</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -10080,7 +10089,7 @@
         <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -10094,7 +10103,7 @@
         <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
         <v>121</v>
@@ -10126,7 +10135,7 @@
         <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -10202,17 +10211,17 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B120" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C120:E120)</f>
         <v>kap4</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -10230,10 +10239,10 @@
         <v>can2</v>
       </c>
       <c r="C121" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" t="s">
         <v>184</v>
-      </c>
-      <c r="D121" t="s">
-        <v>185</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -10261,7 +10270,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B123" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C123:E123)</f>
@@ -10271,7 +10280,7 @@
         <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -10284,7 +10293,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C125:E125)</f>
@@ -10294,7 +10303,7 @@
         <v>84</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -10305,7 +10314,7 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s">
         <v>119</v>
@@ -10372,7 +10381,7 @@
         <v>84</v>
       </c>
       <c r="D129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E129">
         <v>5</v>
@@ -10406,13 +10415,13 @@
         <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
         <v>112</v>
       </c>
       <c r="D131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -10438,7 +10447,7 @@
         <v>119</v>
       </c>
       <c r="D133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -10449,17 +10458,17 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B134" s="5" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C134:E134)</f>
         <v>hoo7</v>
       </c>
       <c r="C134" t="s">
+        <v>192</v>
+      </c>
+      <c r="D134" t="s">
         <v>193</v>
-      </c>
-      <c r="D134" t="s">
-        <v>194</v>
       </c>
       <c r="E134">
         <v>7</v>
@@ -10480,7 +10489,7 @@
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -10514,7 +10523,7 @@
         <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
         <v>119</v>
@@ -10541,7 +10550,7 @@
         <v>84</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -10559,10 +10568,10 @@
         <v>theh8</v>
       </c>
       <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139" t="s">
         <v>197</v>
-      </c>
-      <c r="D139" t="s">
-        <v>198</v>
       </c>
       <c r="E139">
         <v>8</v>
@@ -10576,7 +10585,7 @@
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
         <v>119</v>
@@ -11239,7 +11248,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -11324,7 +11333,7 @@
         <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -11341,7 +11350,7 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -11375,7 +11384,7 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -11392,7 +11401,7 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -11409,7 +11418,7 @@
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -11494,7 +11503,7 @@
         <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -11545,7 +11554,7 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -11562,7 +11571,7 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -11579,7 +11588,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -11596,7 +11605,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -11817,7 +11826,7 @@
         <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -11936,7 +11945,7 @@
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -11953,7 +11962,7 @@
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79">
         <v>0</v>
